--- a/src/main/resources/excel/testdata.xlsx
+++ b/src/main/resources/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagar\eclipse-MyFirstProject\AutomatingCarWaleWebsite\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC52B77C-390B-4386-B433-4B88EA4A793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C137B-ACDE-4906-AEA1-90831BD4C429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Car</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Rs. 11.68 Lakh</t>
-  </si>
-  <si>
     <t>Audi</t>
   </si>
   <si>
@@ -121,30 +118,12 @@
     <t>Maruti</t>
   </si>
   <si>
-    <t>No of cars</t>
-  </si>
-  <si>
-    <t>startCarAge</t>
-  </si>
-  <si>
-    <t>endCarAge</t>
-  </si>
-  <si>
     <t>carTransmissionType</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>madurai</t>
   </si>
   <si>
@@ -236,6 +215,9 @@
   </si>
   <si>
     <t>getNewlyLaunchedCarsTest</t>
+  </si>
+  <si>
+    <t>Rs. 11.56 Lakh</t>
   </si>
 </sst>
 </file>
@@ -583,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4C6A0A-5121-4894-93C2-F5977E21DA07}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +576,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -602,7 +584,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -610,7 +592,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -618,7 +600,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -626,7 +608,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -634,7 +616,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -681,7 +663,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -689,7 +671,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -697,7 +679,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -705,7 +687,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -713,7 +695,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -728,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1413D5E-AEB3-46A4-B465-A4920AC44CD6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -775,16 +757,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -792,16 +774,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -814,57 +796,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F1AEA9-04CE-424A-B328-64E39AF17836}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -878,7 +842,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,43 +864,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
@@ -944,43 +908,43 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>4</v>
